--- a/esnu004/Module2_Guide d'entretien.xlsx
+++ b/esnu004/Module2_Guide d'entretien.xlsx
@@ -374,17 +374,17 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="107.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="111.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="90.22"/>
   </cols>
   <sheetData>
